--- a/HORA DO SHOW.xlsx
+++ b/HORA DO SHOW.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Google Drive\REDES NEURAIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FACULDADE\7p\01 - Inteligencia Computacional\Perceptron\RedesNeurais\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="TREINO PRA X1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Epoca 2 - Treino X3" sheetId="7" r:id="rId6"/>
     <sheet name="Plan1 (2)" sheetId="9" r:id="rId7"/>
     <sheet name="HORA DO SHOW" sheetId="8" r:id="rId8"/>
-    <sheet name="Plan1" sheetId="10" r:id="rId9"/>
+    <sheet name="HORA DO SHOW (2)" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="110">
   <si>
     <t>X1</t>
   </si>
@@ -360,6 +360,9 @@
   <si>
     <t>x1</t>
   </si>
+  <si>
+    <t>xx</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -685,11 +688,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -764,11 +817,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1084,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H10" sqref="H9:H10"/>
     </sheetView>
   </sheetViews>
@@ -5631,7 +5727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5910,8 +6006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E14"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10462,6 +10558,4578 @@
     <mergeCell ref="AK15:BK15"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:AH13">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:E62">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="x">
+      <formula>NOT(ISERROR(SEARCH("x",A4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL4:AV13 AX4:AY12 BB4:BK13">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4:AW13">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM62"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="24" width="2.7109375" customWidth="1"/>
+    <col min="25" max="25" width="3.85546875" customWidth="1"/>
+    <col min="26" max="34" width="2.7109375" customWidth="1"/>
+    <col min="37" max="37" width="4.140625" customWidth="1"/>
+    <col min="38" max="44" width="2.7109375" customWidth="1"/>
+    <col min="45" max="45" width="3.28515625" customWidth="1"/>
+    <col min="46" max="46" width="2.7109375" customWidth="1"/>
+    <col min="47" max="47" width="4.140625" customWidth="1"/>
+    <col min="48" max="53" width="2.7109375" customWidth="1"/>
+    <col min="54" max="54" width="3.85546875" customWidth="1"/>
+    <col min="55" max="55" width="3.42578125" customWidth="1"/>
+    <col min="56" max="63" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+    </row>
+    <row r="3" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA3" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC3" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE3" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF3" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG3" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH3" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ3" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="55"/>
+      <c r="AU3" s="55"/>
+      <c r="BB3" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55"/>
+      <c r="BJ3" s="55"/>
+      <c r="BK3" s="55"/>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="34">
+        <v>1</v>
+      </c>
+      <c r="J4" s="32">
+        <f>IF(A4="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K4" s="32">
+        <f>IF(B4="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="L4" s="32">
+        <f>IF(C4="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="32">
+        <f>IF(D4="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="33">
+        <f>IF(E4="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="O4" s="32">
+        <f>IF(A5="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P4" s="32">
+        <f>IF(B5="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="32">
+        <f>IF(C5="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R4" s="32">
+        <f>IF(D5="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="33">
+        <f>IF(E5="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="T4" s="32">
+        <f>IF(A6="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U4" s="32">
+        <f>IF(B6="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="V4" s="32">
+        <f>IF(C6="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="W4" s="32">
+        <f>IF(D6="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="33">
+        <f>IF(E6="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y4" s="32">
+        <f>IF(A7="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="32">
+        <f>IF(B7="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA4" s="32">
+        <f>IF(C7="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AB4" s="32">
+        <f>IF(D7="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AC4" s="33">
+        <f>IF(E7="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AD4" s="32">
+        <f>IF(A8="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="32">
+        <f>IF(B8="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF4" s="32">
+        <f>IF(C8="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AG4" s="32">
+        <f>IF(D8="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AH4" s="33">
+        <f>IF(E8="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL4" s="47">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN4" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO4" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP4" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ4" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR4" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS4" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT4" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU4" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB4" s="46"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="46"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="46"/>
+      <c r="BI4" s="46"/>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>IF(A10="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <f>IF(B10="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <f>IF(C10="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>IF(D10="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1">
+        <f>IF(E10="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="O5">
+        <f>IF(A11="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:S5" si="0">IF(B11="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="T5">
+        <f>IF(A12="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ref="U5:X5" si="1">IF(B12="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <f>IF(A13="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:AC5" si="2">IF(B13="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AD5">
+        <f>IF(A14="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AH5" si="3">IF(B14="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AH5" s="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL5" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM5" s="47">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO5" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP5" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ5" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR5" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS5" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT5" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU5" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="47"/>
+      <c r="AX5" s="47"/>
+      <c r="AY5" s="47"/>
+      <c r="AZ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB5" s="47"/>
+      <c r="BC5" s="47"/>
+      <c r="BD5" s="47"/>
+      <c r="BE5" s="47"/>
+      <c r="BF5" s="47"/>
+      <c r="BG5" s="47"/>
+      <c r="BH5" s="47"/>
+      <c r="BI5" s="47"/>
+      <c r="BJ5" s="47"/>
+      <c r="BK5" s="47"/>
+      <c r="BL5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="G6" s="30">
+        <v>2</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>IF(A16="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">IF(B16="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <f>IF(A17="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:S6" si="5">IF(B17="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <f>IF(A18="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ref="U6:X6" si="6">IF(B18="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <f>IF(A19="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:AC6" si="7">IF(B19="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="AD6">
+        <f>IF(A20="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ref="AE6:AH6" si="8">IF(B20="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL6" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM6" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN6" s="47">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP6" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ6" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR6" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS6" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT6" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU6" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="47"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA6" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB6" s="47"/>
+      <c r="BC6" s="47"/>
+      <c r="BD6" s="47"/>
+      <c r="BE6" s="47"/>
+      <c r="BF6" s="47"/>
+      <c r="BG6" s="47"/>
+      <c r="BH6" s="47"/>
+      <c r="BI6" s="47"/>
+      <c r="BJ6" s="47"/>
+      <c r="BK6" s="47"/>
+      <c r="BL6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="G7" s="30">
+        <v>3</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="35">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>IF(A22="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="9">IF(B22="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f>IF(A23="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:S7" si="10">IF(B23="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f>IF(A24="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7:X7" si="11">IF(B24="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <f>IF(A25="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7:AC7" si="12">IF(B25="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <f>IF(A26="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" ref="AE7:AH7" si="13">IF(B26="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AH7" s="1">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL7" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM7" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN7" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO7" s="48">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ7" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR7" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS7" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT7" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU7" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="47"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB7" s="47"/>
+      <c r="BC7" s="47"/>
+      <c r="BD7" s="47"/>
+      <c r="BE7" s="47"/>
+      <c r="BF7" s="47"/>
+      <c r="BG7" s="47"/>
+      <c r="BH7" s="47"/>
+      <c r="BI7" s="47"/>
+      <c r="BJ7" s="47"/>
+      <c r="BK7" s="47"/>
+    </row>
+    <row r="8" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="G8" s="30">
+        <v>4</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>IF(A28="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="14">IF(B28="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <f>IF(A29="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:S8" si="15">IF(B29="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="T8">
+        <f>IF(A30="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:X8" si="16">IF(B30="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <f>IF(A31="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:AC8" si="17">IF(B31="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="AD8">
+        <f>IF(A32="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" ref="AE8:AH8" si="18">IF(B32="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AH8" s="1">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL8" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM8" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN8" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO8" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP8" s="49">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR8" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS8" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT8" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU8" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="47"/>
+      <c r="AX8" s="47"/>
+      <c r="AY8" s="47"/>
+      <c r="AZ8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB8" s="47"/>
+      <c r="BC8" s="47"/>
+      <c r="BD8" s="47"/>
+      <c r="BE8" s="47"/>
+      <c r="BF8" s="47"/>
+      <c r="BG8" s="47"/>
+      <c r="BH8" s="47"/>
+      <c r="BI8" s="47"/>
+      <c r="BJ8" s="47"/>
+      <c r="BK8" s="47"/>
+    </row>
+    <row r="9" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="G9" s="30">
+        <v>5</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>IF(A34="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="19">IF(B34="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <f>IF(A35="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9:S9" si="20">IF(B35="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="T9">
+        <f>IF(A36="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:X9" si="21">IF(B36="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="Y9">
+        <f>IF(A37="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" ref="Z9:AC9" si="22">IF(B37="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="AD9">
+        <f>IF(A38="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" ref="AE9:AH9" si="23">IF(B38="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AH9" s="1">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL9" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM9" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN9" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO9" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP9" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ9" s="48">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS9" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT9" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU9" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="47"/>
+      <c r="AX9" s="47"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB9" s="47"/>
+      <c r="BC9" s="47"/>
+      <c r="BD9" s="47"/>
+      <c r="BE9" s="47"/>
+      <c r="BF9" s="47"/>
+      <c r="BG9" s="47"/>
+      <c r="BH9" s="47"/>
+      <c r="BI9" s="47"/>
+      <c r="BJ9" s="47"/>
+      <c r="BK9" s="47"/>
+    </row>
+    <row r="10" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="G10" s="30">
+        <v>6</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="35">
+        <v>1</v>
+      </c>
+      <c r="J10" s="47">
+        <f>IF(A40="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K10" s="47">
+        <f t="shared" ref="K10:N10" si="24">IF(B40="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="47">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="M10" s="47">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="O10" s="47">
+        <f>IF(A41="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P10" s="47">
+        <f>IF(B41="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="47">
+        <f>IF(C41="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R10" s="47">
+        <f>IF(D41="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <f>IF(E41="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="T10" s="47">
+        <f>IF(A42="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U10" s="47">
+        <f t="shared" ref="U10:X10" si="25">IF(B42="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V10" s="47">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="47">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="47">
+        <f>IF(A43="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="47">
+        <f t="shared" ref="Z10:AC10" si="26">IF(B43="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="47">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="47">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="AD10" s="47">
+        <f>IF(A44="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="47">
+        <f t="shared" ref="AE10:AH10" si="27">IF(B44="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AF10" s="47">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AG10" s="47">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK10" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL10" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM10" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN10" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO10" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP10" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ10" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR10" s="48">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT10" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU10" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="47"/>
+      <c r="AX10" s="47"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA10" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB10" s="47"/>
+      <c r="BC10" s="47"/>
+      <c r="BD10" s="47"/>
+      <c r="BE10" s="47"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="47"/>
+      <c r="BH10" s="47"/>
+      <c r="BI10" s="47"/>
+      <c r="BJ10" s="47"/>
+      <c r="BK10" s="47"/>
+    </row>
+    <row r="11" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="G11" s="30">
+        <v>7</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="58">
+        <v>1</v>
+      </c>
+      <c r="J11" s="59">
+        <f>IF(A46="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="59">
+        <f t="shared" ref="K11:N11" si="28">IF(B46="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="59">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="59">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="N11" s="60">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="O11" s="59">
+        <f>IF(A47="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P11" s="59">
+        <f t="shared" ref="P11:S11" si="29">IF(B47="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="59">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="R11" s="59">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="S11" s="60">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="T11" s="59">
+        <f>IF(A48="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U11" s="59">
+        <f>IF(B48="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V11" s="59">
+        <f>IF(C48="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="59">
+        <f>IF(D48="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="60">
+        <f>IF(E48="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="59">
+        <f>IF(A49="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="59">
+        <f t="shared" ref="Z11:AC11" si="30">IF(B49="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA11" s="59">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="AB11" s="59">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="AC11" s="60">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="AD11" s="59">
+        <f>IF(A50="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE11" s="59">
+        <f t="shared" ref="AE11:AH11" si="31">IF(B50="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF11" s="59">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AG11" s="59">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="AH11" s="61">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL11" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM11" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN11" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO11" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP11" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ11" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR11" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS11" s="48">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU11" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA11" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="47"/>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="47"/>
+      <c r="BH11" s="47"/>
+      <c r="BI11" s="47"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="G12" s="30">
+        <v>8</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="35">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f>IF(A52="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:N12" si="32">IF(B52="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>IF(A53="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:S12" si="33">IF(B53="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="33"/>
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <f>IF(A54="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12:X12" si="34">IF(B54="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <f>IF(A55="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" ref="Z12:AC12" si="35">IF(B55="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="AD12">
+        <f>IF(A56="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" ref="AE12:AH12" si="36">IF(B56="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL12" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM12" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN12" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO12" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP12" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ12" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR12" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS12" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT12" s="48">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="50">
+        <v>-1</v>
+      </c>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="47"/>
+      <c r="AX12" s="47"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA12" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB12" s="47"/>
+      <c r="BC12" s="47"/>
+      <c r="BD12" s="47"/>
+      <c r="BE12" s="47"/>
+      <c r="BF12" s="47"/>
+      <c r="BG12" s="47"/>
+      <c r="BH12" s="47"/>
+      <c r="BI12" s="47"/>
+      <c r="BJ12" s="47"/>
+      <c r="BK12" s="47"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="G13" s="30">
+        <v>9</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>IF(A58="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:N13" si="37">IF(B58="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <f>IF(A59="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:S13" si="38">IF(B59="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="T13">
+        <f>IF(A60="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13:X13" si="39">IF(B60="x",1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="39"/>
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <f>IF(A61="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13:AC13" si="40">IF(B61="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+      <c r="AD13">
+        <f>IF(A62="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" ref="AE13:AH13" si="41">IF(B62="x",1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AH13" s="1">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL13" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AM13" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AN13" s="47">
+        <v>-1</v>
+      </c>
+      <c r="AO13" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AP13" s="49">
+        <v>-1</v>
+      </c>
+      <c r="AQ13" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AR13" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AS13" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AT13" s="48">
+        <v>-1</v>
+      </c>
+      <c r="AU13" s="48">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AZ13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA13" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB13" s="47">
+        <f>BM17</f>
+        <v>-1</v>
+      </c>
+      <c r="BC13" s="47">
+        <f>BM18</f>
+        <v>-1</v>
+      </c>
+      <c r="BD13" s="47">
+        <f>BM19</f>
+        <v>-1</v>
+      </c>
+      <c r="BE13" s="47">
+        <f>BM20</f>
+        <v>-1</v>
+      </c>
+      <c r="BF13" s="47">
+        <f>BM21</f>
+        <v>1</v>
+      </c>
+      <c r="BG13" s="47">
+        <f>BM22</f>
+        <v>-1</v>
+      </c>
+      <c r="BH13" s="47">
+        <f>BM23</f>
+        <v>-1</v>
+      </c>
+      <c r="BI13" s="47">
+        <f>BM24</f>
+        <v>-1</v>
+      </c>
+      <c r="BJ13" s="47">
+        <f>BM25</f>
+        <v>-1</v>
+      </c>
+      <c r="BK13" s="47">
+        <f>BM26</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="H15" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="55"/>
+      <c r="AF15" s="55"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="55"/>
+      <c r="AK15" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="57"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="57"/>
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BK15" s="57"/>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="38"/>
+      <c r="BL16" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="BM16" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="G17" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>-2</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>-2</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>-2</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL17">
+        <f>I$13*H17</f>
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" ref="AM17:BK26" si="42">J$13*I17</f>
+        <v>-2</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BB17">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BC17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BE17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BI17">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BJ17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="51">
+        <f>SUM(AL17:BK17)</f>
+        <v>-10</v>
+      </c>
+      <c r="BM17" s="52">
+        <f>IF(BL17&gt;0,1,-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="G18" s="56"/>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>-4</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>4</v>
+      </c>
+      <c r="Q18">
+        <v>-2</v>
+      </c>
+      <c r="R18">
+        <v>-2</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>-2</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>-2</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>2</v>
+      </c>
+      <c r="AE18">
+        <v>-2</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" ref="AL18:AL26" si="43">I$13*H18</f>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BD18">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BE18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BI18">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BJ18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="51">
+        <f t="shared" ref="BL18:BL26" si="44">SUM(AL18:BK18)</f>
+        <v>-6</v>
+      </c>
+      <c r="BM18" s="52">
+        <f t="shared" ref="BM18:BM26" si="45">IF(BL18&gt;0,1,-1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="G19" s="56"/>
+      <c r="H19">
+        <v>-2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>-2</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>-2</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>-2</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <v>-2</v>
+      </c>
+      <c r="AA19">
+        <v>-2</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>-2</v>
+      </c>
+      <c r="AF19">
+        <v>-2</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="43"/>
+        <v>-2</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AR19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AY19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="BD19">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BE19">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BJ19">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BK19">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="51">
+        <f t="shared" si="44"/>
+        <v>-8</v>
+      </c>
+      <c r="BM19" s="52">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="44"/>
+      <c r="G20" s="56"/>
+      <c r="H20">
+        <v>-2</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>-2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>-8</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>2</v>
+      </c>
+      <c r="AD20">
+        <v>2</v>
+      </c>
+      <c r="AE20">
+        <v>2</v>
+      </c>
+      <c r="AF20">
+        <v>-2</v>
+      </c>
+      <c r="AG20">
+        <v>2</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="43"/>
+        <v>-2</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="42"/>
+        <v>-8</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BB20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BD20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BH20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BI20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BJ20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BK20">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BL20" s="51">
+        <f t="shared" si="44"/>
+        <v>-20</v>
+      </c>
+      <c r="BM20" s="52">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="G21" s="56"/>
+      <c r="H21">
+        <v>-2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>-2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>2</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>-2</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>2</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="43"/>
+        <v>-2</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BB21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BC21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BF21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BI21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BL21" s="51">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="BM21" s="52">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22">
+        <v>-2</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>-2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>-2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>-10</v>
+      </c>
+      <c r="R22">
+        <v>-2</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>-10</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>4</v>
+      </c>
+      <c r="AB22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>2</v>
+      </c>
+      <c r="AD22">
+        <v>2</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>2</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="43"/>
+        <v>-2</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="42"/>
+        <v>-10</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BH22">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BI22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BL22" s="51">
+        <f t="shared" si="44"/>
+        <v>-4</v>
+      </c>
+      <c r="BM22" s="52">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="56"/>
+      <c r="H23">
+        <v>-4</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>-2</v>
+      </c>
+      <c r="K23">
+        <v>-2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>-12</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>-2</v>
+      </c>
+      <c r="AA23">
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <v>2</v>
+      </c>
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>-2</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>2</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="43"/>
+        <v>-4</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="42"/>
+        <v>-12</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BC23">
+        <f t="shared" si="42"/>
+        <v>-10</v>
+      </c>
+      <c r="BD23">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BF23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BG23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BH23">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="BJ23">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BL23" s="51">
+        <f t="shared" si="44"/>
+        <v>-38</v>
+      </c>
+      <c r="BM23" s="52">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="56"/>
+      <c r="H24">
+        <v>-1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>-1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <v>-1</v>
+      </c>
+      <c r="P24">
+        <v>-1</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>-1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>-3</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>-1</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>-5</v>
+      </c>
+      <c r="AG24">
+        <v>3</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="42"/>
+        <v>-3</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="42"/>
+        <v>-3</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="42"/>
+        <v>-3</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="BD24">
+        <f t="shared" si="42"/>
+        <v>-3</v>
+      </c>
+      <c r="BE24">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="BF24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BG24">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="BH24">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BI24">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="BJ24">
+        <f t="shared" si="42"/>
+        <v>-5</v>
+      </c>
+      <c r="BK24">
+        <f t="shared" si="42"/>
+        <v>-3</v>
+      </c>
+      <c r="BL24" s="51">
+        <f t="shared" si="44"/>
+        <v>-16</v>
+      </c>
+      <c r="BM24" s="52">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25">
+        <v>-3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>-1</v>
+      </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>-1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <v>5</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>11</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AD25">
+        <v>-1</v>
+      </c>
+      <c r="AE25">
+        <v>-1</v>
+      </c>
+      <c r="AF25">
+        <v>-1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="43"/>
+        <v>-3</v>
+      </c>
+      <c r="AM25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="BC25">
+        <f t="shared" si="42"/>
+        <v>-11</v>
+      </c>
+      <c r="BD25">
+        <f t="shared" si="42"/>
+        <v>-3</v>
+      </c>
+      <c r="BE25">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="BF25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="BG25">
+        <f t="shared" si="42"/>
+        <v>-3</v>
+      </c>
+      <c r="BH25">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BI25">
+        <f t="shared" si="42"/>
+        <v>1</v>
+      </c>
+      <c r="BJ25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="BK25">
+        <f t="shared" si="42"/>
+        <v>-1</v>
+      </c>
+      <c r="BL25" s="51">
+        <f t="shared" si="44"/>
+        <v>-8</v>
+      </c>
+      <c r="BM25" s="52">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26">
+        <v>-4</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>-2</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>-2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>12</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>-2</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>-6</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>4</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26">
+        <v>-2</v>
+      </c>
+      <c r="AG26">
+        <v>4</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="43"/>
+        <v>-4</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="42"/>
+        <v>12</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BC26">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="BD26">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BG26">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="BH26">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="BI26">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="BJ26">
+        <f t="shared" si="42"/>
+        <v>-2</v>
+      </c>
+      <c r="BK26">
+        <f t="shared" si="42"/>
+        <v>-4</v>
+      </c>
+      <c r="BL26" s="51">
+        <f t="shared" si="44"/>
+        <v>-14</v>
+      </c>
+      <c r="BM26" s="52">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="AK28" s="53"/>
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="53"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
+      <c r="AZ28" s="53"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="53"/>
+      <c r="BC28" s="53"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="53"/>
+      <c r="BH28" s="53"/>
+      <c r="BI28" s="53"/>
+      <c r="BJ28" s="53"/>
+      <c r="BK28" s="53"/>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="41"/>
+    </row>
+    <row r="32" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="44"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="41"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="41"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="42"/>
+      <c r="B44" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="44"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="J47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="41"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="40"/>
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="40"/>
+      <c r="E53" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="40"/>
+      <c r="E55" s="41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
+      <c r="B58" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="38"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="39"/>
+      <c r="B59" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="41"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="39"/>
+      <c r="B60" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="41"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="39"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="41"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I2:AH2"/>
+    <mergeCell ref="AJ3:AU3"/>
+    <mergeCell ref="BB3:BK3"/>
+    <mergeCell ref="H15:AH15"/>
+    <mergeCell ref="AK15:BK15"/>
+    <mergeCell ref="G17:G26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J4:AH13">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -10484,16 +15152,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>